--- a/output/ADAM_23951048000180.xlsx
+++ b/output/ADAM_23951048000180.xlsx
@@ -856,10 +856,10 @@
         <v>44165</v>
       </c>
       <c r="B43">
-        <v>0.2673483999999999</v>
+        <v>0.2642910199999999</v>
       </c>
       <c r="C43">
-        <v>0.01882292911507721</v>
+        <v>0.01636509759296545</v>
       </c>
     </row>
   </sheetData>

--- a/output/ADAM_23951048000180.xlsx
+++ b/output/ADAM_23951048000180.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ADAM MACRO STRATEGY II FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42916</v>
       </c>
@@ -411,455 +405,332 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42947</v>
       </c>
       <c r="B3">
         <v>0.02304971999999994</v>
       </c>
-      <c r="C3">
-        <v>0.02304971999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42978</v>
       </c>
       <c r="B4">
-        <v>0.04455961000000008</v>
-      </c>
-      <c r="C4">
         <v>0.02102526356197054</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43008</v>
       </c>
       <c r="B5">
-        <v>0.07506636000000011</v>
-      </c>
-      <c r="C5">
         <v>0.02920537009850488</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43039</v>
       </c>
       <c r="B6">
-        <v>0.08151079000000006</v>
-      </c>
-      <c r="C6">
         <v>0.005994448565947108</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43069</v>
       </c>
       <c r="B7">
-        <v>0.08506623000000002</v>
-      </c>
-      <c r="C7">
         <v>0.003287475291855246</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43100</v>
       </c>
       <c r="B8">
-        <v>0.09851155999999994</v>
-      </c>
-      <c r="C8">
         <v>0.01239125283624376</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43131</v>
       </c>
       <c r="B9">
-        <v>0.1685893999999999</v>
-      </c>
-      <c r="C9">
         <v>0.06379344792693842</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43159</v>
       </c>
       <c r="B10">
-        <v>0.1807807400000001</v>
-      </c>
-      <c r="C10">
         <v>0.01043252660001892</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43190</v>
       </c>
       <c r="B11">
-        <v>0.1541172799999999</v>
-      </c>
-      <c r="C11">
         <v>-0.02258121181753037</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43220</v>
       </c>
       <c r="B12">
-        <v>0.17639198</v>
-      </c>
-      <c r="C12">
         <v>0.01930020491504991</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43251</v>
       </c>
       <c r="B13">
-        <v>0.1686828300000001</v>
-      </c>
-      <c r="C13">
         <v>-0.006553215366191023</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43281</v>
       </c>
       <c r="B14">
-        <v>0.1432182500000001</v>
-      </c>
-      <c r="C14">
         <v>-0.02178912819314716</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43312</v>
       </c>
       <c r="B15">
-        <v>0.1555979999999999</v>
-      </c>
-      <c r="C15">
         <v>0.01082885966874647</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43343</v>
       </c>
       <c r="B16">
-        <v>0.1566589599999999</v>
-      </c>
-      <c r="C16">
         <v>0.0009181047388451269</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43373</v>
       </c>
       <c r="B17">
-        <v>0.1568131399999999</v>
-      </c>
-      <c r="C17">
         <v>0.0001332977181105477</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43404</v>
       </c>
       <c r="B18">
-        <v>0.16833622</v>
-      </c>
-      <c r="C18">
         <v>0.009961055594510437</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43434</v>
       </c>
       <c r="B19">
-        <v>0.17310008</v>
-      </c>
-      <c r="C19">
         <v>0.004077473520422092</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43465</v>
       </c>
       <c r="B20">
-        <v>0.1786317500000001</v>
-      </c>
-      <c r="C20">
         <v>0.004715428883101058</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43496</v>
       </c>
       <c r="B21">
-        <v>0.18878547</v>
-      </c>
-      <c r="C21">
         <v>0.00861483665275431</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43524</v>
       </c>
       <c r="B22">
-        <v>0.1883964</v>
-      </c>
-      <c r="C22">
         <v>-0.0003272836098846543</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43555</v>
       </c>
       <c r="B23">
-        <v>0.1970921299999999</v>
-      </c>
-      <c r="C23">
         <v>0.007317196517929503</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43585</v>
       </c>
       <c r="B24">
-        <v>0.20730384</v>
-      </c>
-      <c r="C24">
         <v>0.008530429483318169</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43616</v>
       </c>
       <c r="B25">
-        <v>0.2263486400000001</v>
-      </c>
-      <c r="C25">
         <v>0.01577465371103282</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43646</v>
       </c>
       <c r="B26">
-        <v>0.20923406</v>
-      </c>
-      <c r="C26">
         <v>-0.01395572143334389</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43677</v>
       </c>
       <c r="B27">
-        <v>0.2064012399999999</v>
-      </c>
-      <c r="C27">
         <v>-0.00234265647462828</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43708</v>
       </c>
       <c r="B28">
-        <v>0.2340329999999999</v>
-      </c>
-      <c r="C28">
         <v>0.02290428680262302</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43738</v>
       </c>
       <c r="B29">
-        <v>0.2295794499999999</v>
-      </c>
-      <c r="C29">
         <v>-0.003608939145063439</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43769</v>
       </c>
       <c r="B30">
-        <v>0.2265415399999999</v>
-      </c>
-      <c r="C30">
         <v>-0.00247069028357616</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43799</v>
       </c>
       <c r="B31">
-        <v>0.2254624199999999</v>
-      </c>
-      <c r="C31">
         <v>-0.0008798071364137794</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43830</v>
       </c>
       <c r="B32">
-        <v>0.21642976</v>
-      </c>
-      <c r="C32">
         <v>-0.007370817621645154</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43861</v>
       </c>
       <c r="B33">
-        <v>0.2377020599999999</v>
-      </c>
-      <c r="C33">
         <v>0.01748748731698235</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43890</v>
       </c>
       <c r="B34">
-        <v>0.2558109399999999</v>
-      </c>
-      <c r="C34">
         <v>0.01463104941426696</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43921</v>
       </c>
       <c r="B35">
-        <v>0.2786474699999999</v>
-      </c>
-      <c r="C35">
         <v>0.01818468789577521</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43951</v>
       </c>
       <c r="B36">
-        <v>0.2776917999999999</v>
-      </c>
-      <c r="C36">
         <v>-0.0007474069455594146</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43982</v>
       </c>
       <c r="B37">
-        <v>0.2826272299999999</v>
-      </c>
-      <c r="C37">
         <v>0.003862770348843192</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>44012</v>
       </c>
       <c r="B38">
-        <v>0.27292648</v>
-      </c>
-      <c r="C38">
         <v>-0.007563187318266995</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>44043</v>
       </c>
       <c r="B39">
-        <v>0.27599365</v>
-      </c>
-      <c r="C39">
         <v>0.002409542144177879</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>44074</v>
       </c>
       <c r="B40">
-        <v>0.26315121</v>
-      </c>
-      <c r="C40">
         <v>-0.01006465823713154</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>44104</v>
       </c>
       <c r="B41">
-        <v>0.23673126</v>
-      </c>
-      <c r="C41">
         <v>-0.02091590443870928</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>44135</v>
       </c>
       <c r="B42">
-        <v>0.2439339199999999</v>
-      </c>
-      <c r="C42">
         <v>0.005823949173889176</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>44165</v>
       </c>
       <c r="B43">
-        <v>0.2642910199999999</v>
-      </c>
-      <c r="C43">
-        <v>0.01636509759296545</v>
+        <v>0.01347812751982835</v>
       </c>
     </row>
   </sheetData>
